--- a/assets/db/CRI24RI001.xlsx
+++ b/assets/db/CRI24RI001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CodeReactor\assets\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5CBADE-5EB5-4ABE-9089-0D71ED62B4F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6FC076-5EB3-4825-B626-813BB8026E46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Notes and Key" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -650,14 +650,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,24 +943,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16" style="12" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -981,7 +982,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -995,13 +996,17 @@
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(C2," ",D2)</f>
+        <v>Adamu Mouminih</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1015,13 +1020,17 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G29" si="0">_xlfn.CONCAT(C3," ",D3)</f>
+        <v>Awagoum Tchinda Ange Murielle</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1035,13 +1044,17 @@
       </c>
       <c r="F4" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>Laureen William</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1055,13 +1068,17 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>Nkeng Robert</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1075,13 +1092,17 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bole Chrispanus</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1095,13 +1116,17 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>Nkwetalih Trevor</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1115,13 +1140,17 @@
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ewesume Ngande</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1135,13 +1164,17 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>Masombe Endjeu Tressy</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1155,13 +1188,17 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>Funwi Ambe Henry</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1175,13 +1212,17 @@
       </c>
       <c r="F11" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>Chanceline Bobimwo</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1195,13 +1236,17 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>Mbep tenje Raydel</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1215,13 +1260,17 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ewang Donald</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1235,13 +1284,17 @@
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>Agem Blaise</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1255,13 +1308,17 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>Enowyi Mbengtarh</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1276,12 +1333,16 @@
       <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>suh Raoul</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1296,12 +1357,16 @@
       <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>Mac Anderson</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1316,12 +1381,16 @@
       <c r="F18" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>NGIH Etienne</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1336,12 +1405,16 @@
       <c r="F19" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>Dikong Anna Welisanne Success</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1356,12 +1429,16 @@
       <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>Godgift Wisdom</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1376,12 +1453,16 @@
       <c r="F21" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>Fang Shekina</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1396,12 +1477,16 @@
       <c r="F22" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>Esther Bake</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1416,12 +1501,16 @@
       <c r="F23" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>wannabe Glory mailaiso</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>146</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1436,12 +1525,16 @@
       <c r="F24" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ndongwa victory</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1456,12 +1549,16 @@
       <c r="F25" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>Itoe Precious</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1476,12 +1573,16 @@
       <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>Mbep tenje Raydel</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1496,12 +1597,16 @@
       <c r="F27" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>Alfred Lambi</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1516,12 +1621,16 @@
       <c r="F28" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>Fotabong daris Foteck lobe</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1535,6 +1644,10 @@
       </c>
       <c r="F29" s="1" t="s">
         <v>106</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>Neba Bleck Suh</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1693,7 @@
       <c r="B2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1591,7 +1704,7 @@
       <c r="B3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1600,7 +1713,7 @@
       <c r="B4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -1609,7 +1722,7 @@
       <c r="B5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
